--- a/transformed/hme_transformed.xlsx
+++ b/transformed/hme_transformed.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dunkin-sales-summary\transformed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB50695C-8247-4CF7-BAD9-9AA418F9456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -92,16 +98,37 @@
   </si>
   <si>
     <t>Daypart 1</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>0-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get rid of service and menu board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane total </t>
+  </si>
+  <si>
+    <t>remove car coutns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,25 +180,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +247,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,6 +281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,9 +316,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,14 +492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45907</v>
       </c>
@@ -516,44 +564,44 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>149</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>32</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
         <v>32</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>51</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>60</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45907</v>
       </c>
@@ -563,44 +611,44 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>132</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>44</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>44</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <v>69</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>82</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45907</v>
       </c>
@@ -610,44 +658,44 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>28</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>114</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>26</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45907</v>
       </c>
@@ -657,44 +705,44 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>65</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>7</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45907</v>
       </c>
@@ -704,44 +752,44 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
         <v>23</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>23</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>114</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>9</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45907</v>
       </c>
@@ -751,44 +799,50 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>194</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>31</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>31</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>58</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45907</v>
       </c>
@@ -798,44 +852,53 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>210</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>35</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>48</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>61</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45907</v>
       </c>
@@ -845,44 +908,47 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>42</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>42</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>73</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>36</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45907</v>
       </c>
@@ -892,44 +958,44 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>37</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>37</v>
       </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>98</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>21</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45907</v>
       </c>
@@ -939,44 +1005,44 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>154</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>76</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>107</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45907</v>
       </c>
@@ -986,44 +1052,44 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>124</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>67</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>67</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>11</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>101</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>168</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45907</v>
       </c>
@@ -1033,44 +1099,47 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>52</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>58</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>58</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>141</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>80</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45907</v>
       </c>
@@ -1080,44 +1149,47 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>22</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>48</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>48</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>162</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>134</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>345</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45907</v>
       </c>
@@ -1127,44 +1199,44 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>158</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>27</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>27</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>56</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>86</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45907</v>
       </c>
@@ -1174,44 +1246,44 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>151</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>53</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>53</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>8</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <v>71</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>119</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45907</v>
       </c>
@@ -1221,44 +1293,44 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>54</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>55</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>55</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>13</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>103</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>43</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45907</v>
       </c>
@@ -1268,44 +1340,44 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>40</v>
       </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>40</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>126</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>17</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45907</v>
       </c>
@@ -1315,44 +1387,44 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>140</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>31</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>64</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>64</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45907</v>
       </c>
@@ -1362,44 +1434,44 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>151</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>40</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>40</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>67</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>93</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45907</v>
       </c>
@@ -1409,44 +1481,44 @@
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>38</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>38</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>99</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>24</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45907</v>
       </c>
@@ -1456,44 +1528,44 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>35</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>35</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>80</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>8</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45907</v>
       </c>
@@ -1503,44 +1575,44 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>177</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>33</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>33</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>52</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>54</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45907</v>
       </c>
@@ -1550,44 +1622,44 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>171</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>49</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>49</v>
       </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>67</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>103</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45907</v>
       </c>
@@ -1597,44 +1669,44 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>71</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>30</v>
       </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
         <v>30</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <v>61</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>27</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45907</v>
       </c>
@@ -1644,40 +1716,40 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>19</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>36</v>
       </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
         <v>36</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>78</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>32</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>162</v>
       </c>
     </row>
